--- a/KreditiKBSK.xlsx
+++ b/KreditiKBSK.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="63">
   <si>
     <t>Банка</t>
   </si>
@@ -102,9 +102,6 @@
     <t>https://www.kb.mk/instant-kredit-egm.nspx</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kb.mk/potrosuvacki-depozit.nspx </t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>Станбен кредит</t>
-  </si>
-  <si>
-    <t>согласно проценета вредност на понудено обезбедување и кредитна способност на клиент</t>
   </si>
   <si>
     <t>4.23%-4.46%</t>
@@ -864,9 +858,6 @@
 Предвремена отплата:
 Без провизија за предвремена делумна или целосна отплата на кредитот.</t>
     </r>
-  </si>
-  <si>
-    <t>согласно висината на заложениот депозит</t>
   </si>
   <si>
     <r>
@@ -1417,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1458,7 +1449,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1802,8 +1792,8 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1812,7 +1802,7 @@
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="25" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="9" customWidth="1"/>
@@ -1838,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>19</v>
@@ -1878,12 +1868,14 @@
       <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H2" s="11">
         <v>1000000</v>
@@ -1898,10 +1890,10 @@
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,12 +1909,14 @@
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" s="12">
         <v>2000000</v>
@@ -1937,7 +1931,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>23</v>
@@ -1956,12 +1950,14 @@
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H4" s="12">
         <v>2000000</v>
@@ -1976,38 +1972,38 @@
         <v>6.1400000000000003E-2</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="21" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>63</v>
+      <c r="G5" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="H5" s="12">
         <v>2000000</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>95</v>
       </c>
       <c r="J5" s="13">
@@ -2017,7 +2013,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>23</v>
@@ -2030,25 +2026,25 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H6" s="9">
         <v>300000</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>60</v>
       </c>
       <c r="J6" s="13">
@@ -2058,7 +2054,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>24</v>
@@ -2071,20 +2067,20 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="9">
         <v>600000</v>
@@ -2099,7 +2095,7 @@
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>24</v>
@@ -2109,23 +2105,23 @@
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>63</v>
+      <c r="G8" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="H8" s="9">
         <v>200000</v>
@@ -2139,39 +2135,39 @@
       <c r="K8" s="13">
         <v>0.12659999999999999</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>52</v>
+      <c r="L8" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>63</v>
+      <c r="G9" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="H9" s="9">
         <v>200000</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>60</v>
       </c>
       <c r="J9" s="13">
@@ -2180,19 +2176,19 @@
       <c r="K9" s="13">
         <v>0.12659999999999999</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>44</v>
+      <c r="L9" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>26</v>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -2200,18 +2196,16 @@
       <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>54</v>
-      </c>
+      <c r="G10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="38"/>
       <c r="I10" s="1">
         <v>240</v>
       </c>
@@ -2221,280 +2215,276 @@
       <c r="K10" s="13">
         <v>2.07E-2</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>45</v>
+      <c r="L10" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="30">
+      <c r="G11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="29">
         <v>240</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="33">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <v>5.45E-2</v>
       </c>
-      <c r="L11" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>40</v>
+      <c r="L11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="30">
+      <c r="G12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="29">
         <v>240</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="33">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="L12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>40</v>
+      <c r="L12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="33">
+      <c r="G13" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="32">
         <v>25000</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>95</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <v>6.9389999999999993E-2</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="L13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>39</v>
+      <c r="L13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="G14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="32">
         <v>25000</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="29">
         <v>95</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <v>6.9389999999999993E-2</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="L14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>39</v>
+      <c r="L14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="G15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="32">
         <v>50000</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="29">
         <v>240</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <v>6.4390000000000003E-2</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="L15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>39</v>
+      <c r="L15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="G16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="32">
         <v>50000</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="29">
         <v>240</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="37">
         <v>6.4390000000000003E-2</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="L16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>39</v>
+      <c r="L16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>63</v>
+      <c r="G17" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="H17" s="9">
         <v>120000</v>
@@ -2508,39 +2498,39 @@
       <c r="K17" s="13">
         <v>0.10390000000000001</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>51</v>
+      <c r="L17" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="21" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:13" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>63</v>
+      <c r="G18" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="H18" s="9">
         <v>120000</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>60</v>
       </c>
       <c r="J18" s="13">
@@ -2549,216 +2539,206 @@
       <c r="K18" s="13">
         <v>0.11509999999999999</v>
       </c>
-      <c r="L18" s="17" t="s">
-        <v>53</v>
+      <c r="L18" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="29">
+        <v>360</v>
+      </c>
+      <c r="J19" s="33">
+        <v>3.15E-2</v>
+      </c>
+      <c r="K19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="L19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="33" t="s">
+      <c r="G20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="29">
+        <v>360</v>
+      </c>
+      <c r="J20" s="35">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="30">
+    </row>
+    <row r="21" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="29">
         <v>360</v>
       </c>
-      <c r="J19" s="34">
-        <v>3.15E-2</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="28" t="s">
+      <c r="J21" s="36">
+        <v>0.03</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="29">
+        <v>360</v>
+      </c>
+      <c r="J22" s="35">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="29">
+        <v>360</v>
+      </c>
+      <c r="J23" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="K23" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="33" t="s">
+      <c r="L23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="I20" s="30">
-        <v>360</v>
-      </c>
-      <c r="J20" s="36">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="30">
-        <v>360</v>
-      </c>
-      <c r="J21" s="37">
-        <v>0.03</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="30">
-        <v>360</v>
-      </c>
-      <c r="J22" s="36">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="30">
-        <v>360</v>
-      </c>
-      <c r="J23" s="34">
-        <v>0.04</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/KreditiKBSK.xlsx
+++ b/KreditiKBSK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
   <si>
     <t>Банка</t>
   </si>
@@ -111,28 +111,10 @@
     <t>https://www.kb.mk/online-kredit.nspx</t>
   </si>
   <si>
-    <t>Станбен кредит</t>
-  </si>
-  <si>
-    <t>4.23%-4.46%</t>
-  </si>
-  <si>
     <t>https://www.kb.mk/stanben.nspx</t>
   </si>
   <si>
-    <t>3.88-4.19%</t>
-  </si>
-  <si>
-    <t>5,83 % - 6,24 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Банката </t>
-  </si>
-  <si>
-    <t>4.06-4.28%</t>
-  </si>
-  <si>
-    <t>3.68-3.99%</t>
   </si>
   <si>
     <t>https://www.kb.mk/kredit-energetska-efikasnost.nspx</t>
@@ -1250,16 +1232,15 @@
   <si>
     <t>Валутна клаузула</t>
   </si>
+  <si>
+    <t>Станбени</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-  </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,23 +1272,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1408,17 +1373,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1442,10 +1401,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1455,58 +1410,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1791,9 +1728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1802,61 +1739,61 @@
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="26" customWidth="1"/>
     <col min="12" max="12" width="120.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="6" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1865,39 +1802,39 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="11">
+        <v>54</v>
+      </c>
+      <c r="H2" s="9">
         <v>1000000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="26">
         <v>95</v>
       </c>
-      <c r="J2" s="13">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K2" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1906,39 +1843,39 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="12">
+        <v>54</v>
+      </c>
+      <c r="H3" s="10">
         <v>2000000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="26">
         <v>95</v>
       </c>
-      <c r="J3" s="13">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K3" s="14">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="15" t="s">
+      <c r="J3" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K3" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1947,842 +1884,824 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="12">
+        <v>54</v>
+      </c>
+      <c r="H4" s="10">
         <v>2000000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="26">
         <v>95</v>
       </c>
-      <c r="J4" s="13">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K4" s="13">
-        <v>6.1400000000000003E-2</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="J4" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K4" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:13" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="10">
         <v>2000000</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="26">
         <v>95</v>
       </c>
-      <c r="J5" s="13">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K5" s="13">
-        <v>6.1400000000000003E-2</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="J5" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K5" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="7">
+        <v>300000</v>
+      </c>
+      <c r="I6" s="26">
         <v>60</v>
       </c>
-      <c r="H6" s="9">
-        <v>300000</v>
-      </c>
-      <c r="I6" s="17">
-        <v>60</v>
-      </c>
-      <c r="J6" s="13">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="K6" s="13">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="J6" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K6" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="9">
+        <v>54</v>
+      </c>
+      <c r="H7" s="7">
         <v>600000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="26">
         <v>95</v>
       </c>
-      <c r="J7" s="13">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="K7" s="13">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="15" t="s">
+      <c r="J7" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K7" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="7">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="26">
         <v>60</v>
       </c>
-      <c r="H8" s="9">
+      <c r="J8" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K8" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="17" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>200000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="26">
         <v>60</v>
       </c>
-      <c r="J8" s="13">
-        <v>0.1053</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0.12659999999999999</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="9">
-        <v>200000</v>
-      </c>
-      <c r="I9" s="25">
-        <v>60</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0.1053</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0.12659999999999999</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="15" t="s">
+      <c r="J9" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K9" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="1">
+      <c r="G10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="26">
         <v>240</v>
       </c>
-      <c r="J10" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="K10" s="13">
-        <v>2.07E-2</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="15" t="s">
+      <c r="J10" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K10" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="29">
+      <c r="G11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="27">
         <v>240</v>
       </c>
-      <c r="J11" s="33">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K11" s="34">
-        <v>5.45E-2</v>
-      </c>
-      <c r="L11" s="30" t="s">
+      <c r="J11" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K11" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="27">
+        <v>240</v>
+      </c>
+      <c r="J12" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K12" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="28" t="s">
-        <v>38</v>
+      <c r="H13" s="23">
+        <v>25000</v>
+      </c>
+      <c r="I13" s="27">
+        <v>95</v>
+      </c>
+      <c r="J13" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K13" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="23">
+        <v>25000</v>
+      </c>
+      <c r="I14" s="27">
+        <v>95</v>
+      </c>
+      <c r="J14" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K14" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="C15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="G15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="23">
+        <v>50000</v>
+      </c>
+      <c r="I15" s="27">
+        <v>240</v>
+      </c>
+      <c r="J15" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K15" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="29">
+      <c r="G16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="23">
+        <v>50000</v>
+      </c>
+      <c r="I16" s="27">
         <v>240</v>
       </c>
-      <c r="J12" s="33">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="K12" s="34">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="32">
-        <v>25000</v>
-      </c>
-      <c r="I13" s="29">
-        <v>95</v>
-      </c>
-      <c r="J13" s="37">
-        <v>6.9389999999999993E-2</v>
-      </c>
-      <c r="K13" s="34">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="32">
-        <v>25000</v>
-      </c>
-      <c r="I14" s="29">
-        <v>95</v>
-      </c>
-      <c r="J14" s="37">
-        <v>6.9389999999999993E-2</v>
-      </c>
-      <c r="K14" s="34">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="32">
-        <v>50000</v>
-      </c>
-      <c r="I15" s="29">
-        <v>240</v>
-      </c>
-      <c r="J15" s="37">
-        <v>6.4390000000000003E-2</v>
-      </c>
-      <c r="K15" s="34">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="32">
-        <v>50000</v>
-      </c>
-      <c r="I16" s="29">
-        <v>240</v>
-      </c>
-      <c r="J16" s="37">
-        <v>6.4390000000000003E-2</v>
-      </c>
-      <c r="K16" s="34">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>37</v>
+      <c r="J16" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K16" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="7">
+        <v>120000</v>
+      </c>
+      <c r="I17" s="28">
         <v>60</v>
       </c>
-      <c r="H17" s="9">
+      <c r="J17" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K17" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="7">
         <v>120000</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="28">
         <v>60</v>
       </c>
-      <c r="J17" s="13">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0.10390000000000001</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="15" t="s">
+      <c r="J18" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K18" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="31" t="s">
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="27">
+        <v>360</v>
+      </c>
+      <c r="J19" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K19" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="9">
-        <v>120000</v>
-      </c>
-      <c r="I18" s="22">
-        <v>60</v>
-      </c>
-      <c r="J18" s="13">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="L18" s="16" t="s">
+      <c r="F20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="27">
+        <v>360</v>
+      </c>
+      <c r="J20" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K20" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="27">
+        <v>360</v>
+      </c>
+      <c r="J21" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K21" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="15" t="s">
-        <v>25</v>
+      <c r="M21" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="22" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="27">
+        <v>360</v>
+      </c>
+      <c r="J22" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K22" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="27">
+        <v>360</v>
+      </c>
+      <c r="J23" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="K23" s="26">
+        <v>10.53</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="29">
-        <v>360</v>
-      </c>
-      <c r="J19" s="33">
-        <v>3.15E-2</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="29">
-        <v>360</v>
-      </c>
-      <c r="J20" s="35">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="29">
-        <v>360</v>
-      </c>
-      <c r="J21" s="36">
-        <v>0.03</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="29">
-        <v>360</v>
-      </c>
-      <c r="J22" s="35">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="24" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="29">
-        <v>360</v>
-      </c>
-      <c r="J23" s="33">
-        <v>0.04</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.kb.mk/"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.kb.mk/"/>
-    <hyperlink ref="A4:A22" r:id="rId3" display="https://www.kb.mk/"/>
-    <hyperlink ref="M6" r:id="rId4"/>
-    <hyperlink ref="M7" r:id="rId5"/>
-    <hyperlink ref="M17" r:id="rId6"/>
-    <hyperlink ref="M10" r:id="rId7"/>
-    <hyperlink ref="M8" r:id="rId8"/>
-    <hyperlink ref="M2" r:id="rId9"/>
-    <hyperlink ref="A5" r:id="rId10" display="https://www.kb.mk/"/>
-    <hyperlink ref="A18" r:id="rId11" display="https://www.kb.mk/"/>
-    <hyperlink ref="M18" r:id="rId12"/>
-    <hyperlink ref="A9" r:id="rId13" display="https://www.kb.mk/"/>
-    <hyperlink ref="M9" r:id="rId14"/>
-    <hyperlink ref="A19:A22" r:id="rId15" display="https://www.kb.mk/"/>
-    <hyperlink ref="A19" r:id="rId16" display="https://www.kb.mk/"/>
-    <hyperlink ref="M19" r:id="rId17"/>
-    <hyperlink ref="A13" r:id="rId18" display="https://www.kb.mk/"/>
-    <hyperlink ref="M13" r:id="rId19"/>
-    <hyperlink ref="A16" r:id="rId20" display="https://www.kb.mk/"/>
-    <hyperlink ref="M16" r:id="rId21"/>
-    <hyperlink ref="A11" r:id="rId22" display="https://www.kb.mk/"/>
-    <hyperlink ref="M11" r:id="rId23"/>
-    <hyperlink ref="A12" r:id="rId24" display="https://www.kb.mk/"/>
-    <hyperlink ref="M12" r:id="rId25"/>
-    <hyperlink ref="A14" r:id="rId26" display="https://www.kb.mk/"/>
-    <hyperlink ref="M14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28" display="https://www.kb.mk/"/>
-    <hyperlink ref="M15" r:id="rId29"/>
-    <hyperlink ref="A23" r:id="rId30" display="https://www.kb.mk/"/>
-    <hyperlink ref="M23" r:id="rId31"/>
-    <hyperlink ref="A20" r:id="rId32" display="https://www.kb.mk/"/>
-    <hyperlink ref="M20" r:id="rId33"/>
-    <hyperlink ref="A21" r:id="rId34" display="https://www.kb.mk/"/>
-    <hyperlink ref="M21" r:id="rId35"/>
-    <hyperlink ref="A22" r:id="rId36" display="https://www.kb.mk/"/>
-    <hyperlink ref="M22" r:id="rId37"/>
+    <hyperlink ref="M6" r:id="rId1"/>
+    <hyperlink ref="M7" r:id="rId2"/>
+    <hyperlink ref="M17" r:id="rId3"/>
+    <hyperlink ref="M10" r:id="rId4"/>
+    <hyperlink ref="M8" r:id="rId5"/>
+    <hyperlink ref="M2" r:id="rId6"/>
+    <hyperlink ref="M18" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M19" r:id="rId9"/>
+    <hyperlink ref="M13" r:id="rId10"/>
+    <hyperlink ref="M16" r:id="rId11"/>
+    <hyperlink ref="M11" r:id="rId12"/>
+    <hyperlink ref="M12" r:id="rId13"/>
+    <hyperlink ref="M14" r:id="rId14"/>
+    <hyperlink ref="M15" r:id="rId15"/>
+    <hyperlink ref="M23" r:id="rId16"/>
+    <hyperlink ref="M20" r:id="rId17"/>
+    <hyperlink ref="M21" r:id="rId18"/>
+    <hyperlink ref="M22" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/KreditiKBSK.xlsx
+++ b/KreditiKBSK.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
   <si>
     <t>Банка</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Не</t>
   </si>
   <si>
-    <t>Комерцијална банка АД Скопје </t>
-  </si>
-  <si>
     <t>Додатни информации (услови и сл.)</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>https://www.kb.mk/stanben.nspx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Банката </t>
   </si>
   <si>
     <t>https://www.kb.mk/kredit-energetska-efikasnost.nspx</t>
@@ -1234,6 +1228,9 @@
   </si>
   <si>
     <t>Станбени</t>
+  </si>
+  <si>
+    <t>Комерцијална банка АД Скопје</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1756,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1765,39 +1762,39 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1812,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" s="9">
         <v>1000000</v>
@@ -1827,18 +1824,18 @@
         <v>10.53</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1853,7 +1850,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="10">
         <v>2000000</v>
@@ -1868,18 +1865,18 @@
         <v>10.53</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1894,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="10">
         <v>2000000</v>
@@ -1909,18 +1906,18 @@
         <v>10.53</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>6</v>
@@ -1935,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="10">
         <v>2000000</v>
@@ -1950,18 +1947,18 @@
         <v>10.53</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>5</v>
@@ -1976,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="7">
         <v>300000</v>
@@ -1991,18 +1988,18 @@
         <v>10.53</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>5</v>
@@ -2017,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7">
         <v>600000</v>
@@ -2032,18 +2029,18 @@
         <v>10.53</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>5</v>
@@ -2058,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>200000</v>
@@ -2073,18 +2070,18 @@
         <v>10.53</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="17" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>5</v>
@@ -2099,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>200000</v>
@@ -2114,18 +2111,18 @@
         <v>10.53</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -2140,7 +2137,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="26">
@@ -2153,18 +2150,18 @@
         <v>10.53</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>6</v>
@@ -2179,7 +2176,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="27">
@@ -2192,18 +2189,18 @@
         <v>10.53</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>6</v>
@@ -2218,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="27">
@@ -2231,18 +2228,18 @@
         <v>10.53</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>5</v>
@@ -2257,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="23">
         <v>25000</v>
@@ -2272,18 +2269,18 @@
         <v>10.53</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>5</v>
@@ -2298,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="23">
         <v>25000</v>
@@ -2313,18 +2310,18 @@
         <v>10.53</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>5</v>
@@ -2339,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="23">
         <v>50000</v>
@@ -2354,18 +2351,18 @@
         <v>10.53</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>5</v>
@@ -2380,7 +2377,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="23">
         <v>50000</v>
@@ -2395,18 +2392,18 @@
         <v>10.53</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>5</v>
@@ -2421,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>120000</v>
@@ -2436,18 +2433,18 @@
         <v>10.53</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>5</v>
@@ -2462,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="7">
         <v>120000</v>
@@ -2477,24 +2474,24 @@
         <v>10.53</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>12</v>
@@ -2503,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="27">
@@ -2516,24 +2513,24 @@
         <v>10.53</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>12</v>
@@ -2542,7 +2539,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="27">
@@ -2555,24 +2552,24 @@
         <v>10.53</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>12</v>
@@ -2581,7 +2578,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="27">
@@ -2594,24 +2591,24 @@
         <v>10.53</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>12</v>
@@ -2620,7 +2617,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="27">
@@ -2633,24 +2630,24 @@
         <v>10.53</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="16" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>12</v>
@@ -2659,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="27">
@@ -2672,10 +2669,10 @@
         <v>10.53</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
